--- a/Exile数据/系统变工况各部件用分析.xlsx
+++ b/Exile数据/系统变工况各部件用分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13290" tabRatio="869" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13290" tabRatio="869"/>
   </bookViews>
   <sheets>
     <sheet name="参考系统" sheetId="1" r:id="rId1"/>
@@ -3956,7 +3956,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8598,8 +8597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:F40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9766,8 +9765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11140,7 +11139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -11420,7 +11419,7 @@
         <v>16.485036421516952</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="I15:K15" si="1">E1-E8</f>
+        <f t="shared" ref="J15:K15" si="1">E1-E8</f>
         <v>10.296318509304001</v>
       </c>
       <c r="K15">
@@ -11453,15 +11452,15 @@
         <v>0.63499999999999801</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="I16:I20" si="3">D2-D9</f>
+        <f t="shared" ref="I16:I19" si="3">D2-D9</f>
         <v>1.5020000000000095</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J16:J20" si="4">E2-E9</f>
+        <f t="shared" ref="J16:J19" si="4">E2-E9</f>
         <v>0.85900000000000176</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:K20" si="5">F2-F9</f>
+        <f t="shared" ref="K16:K19" si="5">F2-F9</f>
         <v>0.58799999999999386</v>
       </c>
     </row>
@@ -11486,7 +11485,7 @@
         <v>0.27395766309021297</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H16:H19" si="6">C3-C10</f>
+        <f t="shared" ref="H17" si="6">C3-C10</f>
         <v>-10.834</v>
       </c>
       <c r="I17">
@@ -11610,7 +11609,7 @@
         <v>0.46995338160308153</v>
       </c>
       <c r="D26" s="18">
-        <f t="shared" ref="D26:F27" si="11">D14/(D13+D14)</f>
+        <f t="shared" ref="D26:F26" si="11">D14/(D13+D14)</f>
         <v>0.46624234469449494</v>
       </c>
       <c r="E26" s="18">
